--- a/public/Laporan_Excel.xlsx
+++ b/public/Laporan_Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -38,13 +38,19 @@
     <t>Kembalian</t>
   </si>
   <si>
-    <t>loki</t>
+    <t>poppy</t>
+  </si>
+  <si>
+    <t>pasien sakit demam</t>
+  </si>
+  <si>
+    <t>2024-06-06 11:47:22</t>
   </si>
   <si>
     <t>demam</t>
   </si>
   <si>
-    <t>2024-05-24 09:23:01</t>
+    <t>2024-06-07 02:56:31</t>
   </si>
 </sst>
 </file>
@@ -384,7 +390,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,13 +435,36 @@
         <v>9</v>
       </c>
       <c r="E2">
+        <v>30000</v>
+      </c>
+      <c r="F2">
+        <v>40000</v>
+      </c>
+      <c r="G2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
         <v>50000</v>
       </c>
-      <c r="F2">
-        <v>65000</v>
-      </c>
-      <c r="G2">
-        <v>15000</v>
+      <c r="F3">
+        <v>75000</v>
+      </c>
+      <c r="G3">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
